--- a/doc/analyse/InventarisatieElektronica.xlsx
+++ b/doc/analyse/InventarisatieElektronica.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gener\Desktop\Mappen\School\3de jaar (2018-2019)\Internet Of Things\iot18-LF1\doc\analyse\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E995447A-8923-487D-992B-E5A899B3CC58}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64D979B8-B43E-488F-A30B-CB3310F7D7AC}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7485" xr2:uid="{3D4128B0-C4FA-4CEA-9DF9-620AEE41A72A}"/>
   </bookViews>
@@ -23,6 +23,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="43">
   <si>
     <t>IOT_SCHEMATIC, 555timer</t>
   </si>
@@ -123,13 +124,49 @@
   </si>
   <si>
     <t>DIP 8</t>
+  </si>
+  <si>
+    <t>IOT_SCHEMATIC, 1000µF_CAP_LEDS</t>
+  </si>
+  <si>
+    <t>Ultiboard\1000µF_CAP_LEDSTRIPS</t>
+  </si>
+  <si>
+    <t>MCU_USER, ATMega328p</t>
+  </si>
+  <si>
+    <t>Ultiboard\DIP28</t>
+  </si>
+  <si>
+    <t>RESISTOR, 500Ω</t>
+  </si>
+  <si>
+    <t>IPC-2221A/2222\RES2100-1500X500</t>
+  </si>
+  <si>
+    <t>Led Controllers</t>
+  </si>
+  <si>
+    <t>'IOT_SCHEMATIC, 1000µF_CAP_LEDS</t>
+  </si>
+  <si>
+    <t>'IPC-2221A/2222\CAPR500-700X300X600</t>
+  </si>
+  <si>
+    <t>'Texas Instruments\TO-220-3(NDE)</t>
+  </si>
+  <si>
+    <t>'Generic\TO-220AB</t>
+  </si>
+  <si>
+    <t>Pomp-/motorcircuits zijn nog todo!</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -137,13 +174,35 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="28"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -158,11 +217,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -478,10 +546,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{344B49DE-7A1F-4BAB-AB83-669FA63A7D1E}">
-  <dimension ref="A1:G46"/>
+  <dimension ref="A1:I58"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -491,7 +559,7 @@
     <col min="3" max="3" width="41.140625" customWidth="1"/>
     <col min="5" max="5" width="37.5703125" customWidth="1"/>
     <col min="6" max="6" width="13.85546875" customWidth="1"/>
-    <col min="7" max="7" width="31.140625" customWidth="1"/>
+    <col min="7" max="7" width="43.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -560,8 +628,8 @@
         <v>1</v>
       </c>
       <c r="F4">
-        <f>B4+B16+B27+B39</f>
-        <v>10</v>
+        <f>B4+B16+B27+B39+B56</f>
+        <v>18</v>
       </c>
       <c r="G4" t="str">
         <f>C4</f>
@@ -604,8 +672,8 @@
         <v>2</v>
       </c>
       <c r="F6">
-        <f>B5+B17+B29+B40</f>
-        <v>4</v>
+        <f>B5+B17+B29+B40+B50</f>
+        <v>5</v>
       </c>
       <c r="G6" t="str">
         <f>C5</f>
@@ -626,8 +694,8 @@
         <v>3</v>
       </c>
       <c r="F7">
-        <f>B6+B23+B31+B41</f>
-        <v>8</v>
+        <f>B6+B23+B31+B41+B57</f>
+        <v>10</v>
       </c>
       <c r="G7" t="str">
         <f>C23</f>
@@ -651,6 +719,9 @@
         <f>B8</f>
         <v>1</v>
       </c>
+      <c r="G8" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
@@ -669,6 +740,9 @@
         <f>B9+B18+B26+B38</f>
         <v>4</v>
       </c>
+      <c r="G9" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
@@ -680,11 +754,14 @@
       <c r="C10" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E10" s="1" t="s">
-        <v>7</v>
+      <c r="E10" t="s">
+        <v>33</v>
       </c>
       <c r="F10">
-        <v>4</v>
+        <v>1</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -698,10 +775,13 @@
         <v>18</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F11">
-        <v>4</v>
+        <v>5</v>
+      </c>
+      <c r="G11" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -715,11 +795,13 @@
         <v>19</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F12">
-        <f>B12+B21+B34+B44</f>
-        <v>4</v>
+        <v>8</v>
+      </c>
+      <c r="G12" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -736,7 +818,11 @@
         <v>10</v>
       </c>
       <c r="F13">
-        <v>4</v>
+        <f>4+4</f>
+        <v>8</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -751,6 +837,9 @@
       <c r="F14">
         <v>1</v>
       </c>
+      <c r="G14" s="1" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -762,9 +851,14 @@
       <c r="C15" t="s">
         <v>23</v>
       </c>
+      <c r="E15" s="1" t="s">
+        <v>35</v>
+      </c>
       <c r="F15">
-        <f>SUM(F3:F14)</f>
-        <v>47</v>
+        <v>3</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -777,8 +871,18 @@
       <c r="C16" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E16" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F16">
+        <f>B12+B21+B34+B44+B54</f>
+        <v>8</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>2</v>
       </c>
@@ -788,8 +892,17 @@
       <c r="C17" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E17" t="s">
+        <v>38</v>
+      </c>
+      <c r="F17">
+        <v>3</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>6</v>
       </c>
@@ -799,8 +912,12 @@
       <c r="C18" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F18">
+        <f>SUM(F3:F17)</f>
+        <v>78</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>7</v>
       </c>
@@ -811,7 +928,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>8</v>
       </c>
@@ -821,8 +938,13 @@
       <c r="C20" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E20" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>9</v>
       </c>
@@ -832,8 +954,11 @@
       <c r="C21" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>10</v>
       </c>
@@ -843,8 +968,11 @@
       <c r="C22" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>3</v>
       </c>
@@ -854,15 +982,18 @@
       <c r="C23" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>27</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>21</v>
       </c>
@@ -873,7 +1004,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>6</v>
       </c>
@@ -884,7 +1015,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>1</v>
       </c>
@@ -894,8 +1025,9 @@
       <c r="C27" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="I27" s="3"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>4</v>
       </c>
@@ -906,7 +1038,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>2</v>
       </c>
@@ -917,7 +1049,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>26</v>
       </c>
@@ -928,7 +1060,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>3</v>
       </c>
@@ -939,7 +1071,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>7</v>
       </c>
@@ -1090,13 +1222,143 @@
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B46">
-        <f>SUM(B3:B13)+SUM(B16:B23)+SUM(B26:B35)+SUM(B38:B45)</f>
-        <v>47</v>
+      <c r="A46" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B46" s="2"/>
+      <c r="C46" s="2"/>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>21</v>
+      </c>
+      <c r="B47" t="s">
+        <v>22</v>
+      </c>
+      <c r="C47" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B48">
+        <v>4</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B49">
+        <v>3</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B50">
+        <v>1</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B51">
+        <v>1</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B52">
+        <v>1</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B53">
+        <v>4</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B54">
+        <v>4</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B55">
+        <v>3</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B56">
+        <v>8</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B57">
+        <v>2</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B58">
+        <f>SUM(B3:B13)+SUM(B16:B23)+SUM(B26:B35)+SUM(B38:B45)+SUM(B48:B57)</f>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="7">
+    <mergeCell ref="A46:C46"/>
+    <mergeCell ref="E20:G23"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A14:C14"/>
     <mergeCell ref="A24:C24"/>
@@ -1104,5 +1366,6 @@
     <mergeCell ref="E1:G1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
 </worksheet>
 </file>
--- a/doc/analyse/InventarisatieElektronica.xlsx
+++ b/doc/analyse/InventarisatieElektronica.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gener\Desktop\Mappen\School\3de jaar (2018-2019)\Internet Of Things\iot18-LF1\doc\analyse\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64D979B8-B43E-488F-A30B-CB3310F7D7AC}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DB98921-3393-491E-A02C-EF1DCF1C27B4}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7485" xr2:uid="{3D4128B0-C4FA-4CEA-9DF9-620AEE41A72A}"/>
   </bookViews>
@@ -191,7 +191,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -201,6 +201,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -217,14 +223,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -232,6 +238,8 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -549,7 +557,7 @@
   <dimension ref="A1:I58"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
+      <selection activeCell="E12" sqref="E12:G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -563,16 +571,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="E1" s="2" t="s">
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="E1" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -668,14 +676,14 @@
       <c r="C6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="E6" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="7">
         <f>B5+B17+B29+B40+B50</f>
         <v>5</v>
       </c>
-      <c r="G6" t="str">
+      <c r="G6" s="7" t="str">
         <f>C5</f>
         <v>Generic\HC-49U</v>
       </c>
@@ -826,11 +834,11 @@
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
       <c r="E14" s="1" t="s">
         <v>26</v>
       </c>
@@ -987,11 +995,11 @@
       <c r="G23" s="5"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
+      <c r="A24" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
@@ -1025,7 +1033,7 @@
       <c r="C27" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="I27" s="3"/>
+      <c r="I27" s="2"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
@@ -1116,11 +1124,11 @@
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="2" t="s">
+      <c r="A36" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B36" s="2"/>
-      <c r="C36" s="2"/>
+      <c r="B36" s="3"/>
+      <c r="C36" s="3"/>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
@@ -1222,11 +1230,11 @@
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" s="2" t="s">
+      <c r="A46" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B46" s="2"/>
-      <c r="C46" s="2"/>
+      <c r="B46" s="3"/>
+      <c r="C46" s="3"/>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
